--- a/data/outputs/acad-pipelines.xlsx
+++ b/data/outputs/acad-pipelines.xlsx
@@ -429,463 +429,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>pipe #</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pipe type</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>nominal dia</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>id (mm)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>length (m)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>static head (endZ-startZ)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>flow</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>consumption</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>minimum pressure required</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>velocity</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>head loss</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>total head loss</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Pressure at end of pipe</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>start with</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>end with</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>costs per meter</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>total costs</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Pipe 1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>(536.08593755699, 1927.8727861776483, -5.0)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>(1031.5975623507745, 1994.7176041834116, 10.0)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>PE100-16</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>800</v>
-      </c>
-      <c r="F2" t="n">
-        <v>654.8</v>
-      </c>
-      <c r="G2" t="n">
-        <v>500.2249493977684</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1600</v>
-      </c>
-      <c r="J2" t="n">
-        <v>500</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.319806488228362</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.140737836843772</v>
-      </c>
-      <c r="N2" t="n">
-        <v>16.22955535501477</v>
-      </c>
-      <c r="O2" t="n">
-        <v>75.53855790831659</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Pump 1</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Pipe 2</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v>3684.020571006873</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1842839.003712251</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipe 2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>(1031.5975623507745, 1994.7176041834116, 10.0)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>(275.5339499512405, 3290.2359614463903, 3.0)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Steel</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>20</v>
-      </c>
-      <c r="F3" t="n">
-        <v>484</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1500.016333244408</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-7</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1100</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.660770338633185</v>
-      </c>
-      <c r="M3" t="n">
-        <v>7.447282804683117</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.5879190538001771</v>
-      </c>
-      <c r="O3" t="n">
-        <v>74.95063885451641</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Pipe 1</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Pipe 3</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v>1140</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1710018.619898625</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipe 3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>(275.5339499512405, 3290.2359614463903, 3.0)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>(100.02140612523948, 2987.4235657956738, 5.0)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>PE100-10</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>500</v>
-      </c>
-      <c r="F4" t="n">
-        <v>440.6</v>
-      </c>
-      <c r="G4" t="n">
-        <v>350.0057142390679</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1100</v>
-      </c>
-      <c r="J4" t="n">
-        <v>300</v>
-      </c>
-      <c r="K4" t="n">
-        <v>70</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.004062757480953</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.745852624865084</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.950638854516428</v>
-      </c>
-      <c r="O4" t="n">
-        <v>69.99999999999999</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Pipe 2</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Pipe 4</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>1200</v>
-      </c>
-      <c r="S4" t="n">
-        <v>420006.8570868814</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pipe 4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>(100.02140612523948, 2987.4235657956738, 5.0)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>(-710.8799755422069, 3248.8136112868197, 10.0)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>PE100-12.5</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>315</v>
-      </c>
-      <c r="F5" t="n">
-        <v>268.6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>852.0039945164793</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>800</v>
-      </c>
-      <c r="J5" t="n">
-        <v>500</v>
-      </c>
-      <c r="K5" t="n">
-        <v>20</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.921801318497367</v>
-      </c>
-      <c r="M5" t="n">
-        <v>41.27219270928845</v>
-      </c>
-      <c r="N5" t="n">
-        <v>47.05643325496292</v>
-      </c>
-      <c r="O5" t="n">
-        <v>22.94356674503707</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Pipe 3</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Pipe 5</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
-        <v>640</v>
-      </c>
-      <c r="S5" t="n">
-        <v>545282.5564905468</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pipe 5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>(-710.8799755422069, 3248.8136112868197, 10.0)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>(-963.7318520066838, 2783.554092127968, 0.0)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Steel</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" t="n">
-        <v>253</v>
-      </c>
-      <c r="G6" t="n">
-        <v>529.6229711781135</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-10</v>
-      </c>
-      <c r="I6" t="n">
-        <v>300</v>
-      </c>
-      <c r="J6" t="n">
-        <v>300</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.657630886197205</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5.582618564224655</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-4.277276390146397</v>
-      </c>
-      <c r="O6" t="n">
-        <v>27.22084313518346</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Pipe 4</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="n">
-        <v>520</v>
-      </c>
-      <c r="S6" t="n">
-        <v>275403.945012619</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -896,97 +447,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>pump #</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>center</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>flow</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>head</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>start num</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>power</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>wetpit min volume</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>connect to pipe</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Pump 1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>(536.08593755699, 1927.8727861776483, -5.0)</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1600</v>
-      </c>
-      <c r="D2" t="n">
-        <v>91.76811326333137</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
-      </c>
-      <c r="G2" t="n">
-        <v>533.1480799612571</v>
-      </c>
-      <c r="H2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Pipe 1</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -997,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1124,10 +592,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>630</v>
+        <v>710</v>
       </c>
       <c r="F2" t="n">
-        <v>515.6</v>
+        <v>581</v>
       </c>
       <c r="G2" t="n">
         <v>500.2249493977684</v>
@@ -1136,7 +604,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="n">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="J2" t="n">
         <v>500</v>
@@ -1145,16 +613,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.128637864434592</v>
+        <v>2.305037705462748</v>
       </c>
       <c r="M2" t="n">
-        <v>3.653181149522719</v>
+        <v>3.683272966887392</v>
       </c>
       <c r="N2" t="n">
-        <v>18.88421822671549</v>
+        <v>18.9541886727616</v>
       </c>
       <c r="O2" t="n">
-        <v>82.92348633532823</v>
+        <v>75.80205362748406</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -1167,10 +635,10 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2280</v>
+        <v>2650</v>
       </c>
       <c r="S2" t="n">
-        <v>1140512.884626912</v>
+        <v>1325596.115904086</v>
       </c>
     </row>
     <row r="3">
@@ -1195,10 +663,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
-        <v>433</v>
+        <v>582.0000000000001</v>
       </c>
       <c r="G3" t="n">
         <v>1500.016333244408</v>
@@ -1207,7 +675,7 @@
         <v>-7</v>
       </c>
       <c r="I3" t="n">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -1216,16 +684,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.075030622846436</v>
+        <v>1.775049914490998</v>
       </c>
       <c r="M3" t="n">
-        <v>12.80851266715227</v>
+        <v>6.794413462461763</v>
       </c>
       <c r="N3" t="n">
-        <v>6.028059479601309</v>
+        <v>-0.04492968464539082</v>
       </c>
       <c r="O3" t="n">
-        <v>76.89542685572692</v>
+        <v>75.84698331212945</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -1237,12 +705,8 @@
           <t>Pipe 3</t>
         </is>
       </c>
-      <c r="R3" t="n">
-        <v>870</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1305014.209922635</v>
-      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1266,10 +730,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>450</v>
+        <v>560</v>
       </c>
       <c r="F4" t="n">
-        <v>396.6</v>
+        <v>493.6</v>
       </c>
       <c r="G4" t="n">
         <v>350.0057142390679</v>
@@ -1278,7 +742,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="J4" t="n">
         <v>300</v>
@@ -1287,13 +751,13 @@
         <v>70</v>
       </c>
       <c r="L4" t="n">
-        <v>2.473403000433433</v>
+        <v>2.467778846529126</v>
       </c>
       <c r="M4" t="n">
-        <v>4.583489143991611</v>
+        <v>3.536462588318685</v>
       </c>
       <c r="N4" t="n">
-        <v>6.895426855726932</v>
+        <v>5.846983312129445</v>
       </c>
       <c r="O4" t="n">
         <v>70</v>
@@ -1305,14 +769,14 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Pipe 4</t>
+          <t>Pipe 4, Pipe 6</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1010</v>
+        <v>1440</v>
       </c>
       <c r="S4" t="n">
-        <v>353505.7713814586</v>
+        <v>504008.2285042577</v>
       </c>
     </row>
     <row r="5">
@@ -1451,6 +915,215 @@
       </c>
       <c r="S6" t="n">
         <v>275403.945012619</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pipe 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>(100.02140612523948, 2987.4235657956738, 5.0)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>(-269.5460448112317, 2203.8099765885836, 20.0)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PE100-16</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>400</v>
+      </c>
+      <c r="F7" t="n">
+        <v>327.4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>866.5191042220011</v>
+      </c>
+      <c r="H7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I7" t="n">
+        <v>600</v>
+      </c>
+      <c r="J7" t="n">
+        <v>300</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.979709732342543</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9.395515787198093</v>
+      </c>
+      <c r="N7" t="n">
+        <v>24.59535520308285</v>
+      </c>
+      <c r="O7" t="n">
+        <v>31.50861988966031</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Pipe 3</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Pipe 7</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>1020</v>
+      </c>
+      <c r="S7" t="n">
+        <v>883849.4863064411</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pipe 7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>(-269.5460448112317, 2203.8099765885836, 20.0)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>(234.37566463764233, 2213.3139994514913, 15.0)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>253</v>
+      </c>
+      <c r="G8" t="n">
+        <v>504.0361253962399</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>300</v>
+      </c>
+      <c r="J8" t="n">
+        <v>200</v>
+      </c>
+      <c r="K8" t="n">
+        <v>20</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.657630886197205</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5.312914249957283</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.4530192955862313</v>
+      </c>
+      <c r="O8" t="n">
+        <v>31.05560059407408</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Pipe 6</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Pipe 8</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>520</v>
+      </c>
+      <c r="S8" t="n">
+        <v>262098.7852060448</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pipe 8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>(234.37566463764233, 2213.3139994514913, 15.0)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>(48.41996491063037, 1630.8824050856692, 0.0)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PE100-12.5</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>140</v>
+      </c>
+      <c r="F9" t="n">
+        <v>119.4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>611.5808077241111</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-15</v>
+      </c>
+      <c r="I9" t="n">
+        <v>100</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.480841191687941</v>
+      </c>
+      <c r="M9" t="n">
+        <v>32.64993290499724</v>
+      </c>
+      <c r="N9" t="n">
+        <v>17.9637495997951</v>
+      </c>
+      <c r="O9" t="n">
+        <v>13.09185099427898</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Pipe 7</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>208</v>
+      </c>
+      <c r="S9" t="n">
+        <v>127208.8080066151</v>
       </c>
     </row>
   </sheetData>
@@ -1531,10 +1204,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="D2" t="n">
-        <v>101.8077045620437</v>
+        <v>94.75624230024566</v>
       </c>
       <c r="E2" t="n">
         <v>0.75</v>
@@ -1543,10 +1216,10 @@
         <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>591.4754077678648</v>
+        <v>756.9489217884548</v>
       </c>
       <c r="H2" t="n">
-        <v>50</v>
+        <v>68.75</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -1565,283 +1238,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>channel #</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>length (m)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>static head (endZ-startZ)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>slope</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>manning coeficent</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>flow</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>velocity</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>water depth</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>max flow rates</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>max water depth</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>geometry: bottom width</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>geometry: bank slope</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>geometry: channel depth</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>geometry: channel width</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>geometry: free board</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>start with</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>end with</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Channel 1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>(-271.0696617158046, 4062.033799129046, 10.0)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>(-2747.5195659261644, 3116.571339497834, 0.0)</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2650.811836142921</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.003772429209668295</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1200</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.5909400179730609</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.29754638671875</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Channel 2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>(-2747.5195659261644, 3116.571339497834, 0.0)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>(-1565.336305236331, 2430.777475097332, -10.0)</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1366.737167967792</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.007316695729339861</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1200</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.7776749786582623</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.37841796875</v>
-      </c>
-      <c r="K3" t="n">
-        <v>647.4865139418966</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Channel 3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>(-1565.336305236331, 2430.777475097332, -10.0)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>(-2357.368366961731, 1234.5574759611845, -20.0)</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1434.69755458573</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.006970110158783612</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1200</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.7594034981093636</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.218963623046875</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10101.84128829022</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/outputs/acad-pipelines.xlsx
+++ b/data/outputs/acad-pipelines.xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(1031.5975623507745, 1994.7176041834116, 10.0)</t>
+          <t>(1112.7556223528027, 2005.6658755842977, 12.456795843159185)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -598,10 +598,10 @@
         <v>581</v>
       </c>
       <c r="G2" t="n">
-        <v>500.2249493977684</v>
+        <v>582.1549878194318</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>17.45679584315918</v>
       </c>
       <c r="I2" t="n">
         <v>2200</v>
@@ -616,13 +616,13 @@
         <v>2.305037705462748</v>
       </c>
       <c r="M2" t="n">
-        <v>3.683272966887392</v>
+        <v>4.286542947838694</v>
       </c>
       <c r="N2" t="n">
-        <v>18.9541886727616</v>
+        <v>22.01425449687209</v>
       </c>
       <c r="O2" t="n">
-        <v>75.80205362748406</v>
+        <v>75.7828351372391</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         <v>2650</v>
       </c>
       <c r="S2" t="n">
-        <v>1325596.115904086</v>
+        <v>1542710.717721494</v>
       </c>
     </row>
     <row r="3">
@@ -649,12 +649,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(1031.5975623507745, 1994.7176041834116, 10.0)</t>
+          <t>(1112.7556223528027, 2005.6658755842977, 12.456795843159185)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(275.5339499512405, 3290.2359614463903, 3.0)</t>
+          <t>(375.6218616416263, 3051.911036071446, 3.0)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -669,10 +669,10 @@
         <v>582.0000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>1500.016333244408</v>
+        <v>1279.876770634814</v>
       </c>
       <c r="H3" t="n">
-        <v>-7</v>
+        <v>-9.456795843159185</v>
       </c>
       <c r="I3" t="n">
         <v>1700</v>
@@ -687,13 +687,13 @@
         <v>1.775049914490998</v>
       </c>
       <c r="M3" t="n">
-        <v>6.794413462461763</v>
+        <v>5.797278181554547</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.04492968464539082</v>
+        <v>-3.498860808711791</v>
       </c>
       <c r="O3" t="n">
-        <v>75.84698331212945</v>
+        <v>79.2816959459509</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Pipe 3</t>
+          <t>Pipe 3, Pipe 6</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
@@ -716,12 +716,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(275.5339499512405, 3290.2359614463903, 3.0)</t>
+          <t>(375.6218616416263, 3051.911036071446, 3.0)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(100.02140612523948, 2987.4235657956738, 5.0)</t>
+          <t>(144.03445550263132, 2923.579361220609, 5.0)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -730,19 +730,19 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>560</v>
+        <v>450</v>
       </c>
       <c r="F4" t="n">
-        <v>493.6</v>
+        <v>396.6</v>
       </c>
       <c r="G4" t="n">
-        <v>350.0057142390679</v>
+        <v>264.7748958119118</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="J4" t="n">
         <v>300</v>
@@ -751,16 +751,16 @@
         <v>70</v>
       </c>
       <c r="L4" t="n">
-        <v>2.467778846529126</v>
+        <v>2.473403000433433</v>
       </c>
       <c r="M4" t="n">
-        <v>3.536462588318685</v>
+        <v>3.467351563656115</v>
       </c>
       <c r="N4" t="n">
-        <v>5.846983312129445</v>
+        <v>5.779289275391436</v>
       </c>
       <c r="O4" t="n">
-        <v>70</v>
+        <v>73.50240667055947</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -769,14 +769,14 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Pipe 4, Pipe 6</t>
+          <t>Pipe 4</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1440</v>
+        <v>1010</v>
       </c>
       <c r="S4" t="n">
-        <v>504008.2285042577</v>
+        <v>267422.6447700309</v>
       </c>
     </row>
     <row r="5">
@@ -787,12 +787,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(100.02140612523948, 2987.4235657956738, 5.0)</t>
+          <t>(144.03445550263132, 2923.579361220609, 5.0)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(-710.8799755422069, 3248.8136112868197, 10.0)</t>
+          <t>(-945.1143240436759, 3200.8674386767834, 10.0)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -807,7 +807,7 @@
         <v>341.2</v>
       </c>
       <c r="G5" t="n">
-        <v>852.0039945164793</v>
+        <v>1123.903350776459</v>
       </c>
       <c r="H5" t="n">
         <v>5</v>
@@ -825,13 +825,13 @@
         <v>2.430410091926591</v>
       </c>
       <c r="M5" t="n">
-        <v>12.87211359523423</v>
+        <v>16.97998095592162</v>
       </c>
       <c r="N5" t="n">
-        <v>18.17330129740324</v>
+        <v>22.28116865809062</v>
       </c>
       <c r="O5" t="n">
-        <v>51.82669870259676</v>
+        <v>51.22123801246885</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>956</v>
       </c>
       <c r="S5" t="n">
-        <v>814515.8187577543</v>
+        <v>1074451.603342295</v>
       </c>
     </row>
     <row r="6">
@@ -858,12 +858,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(-710.8799755422069, 3248.8136112868197, 10.0)</t>
+          <t>(-945.1143240436759, 3200.8674386767834, 10.0)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(-963.7318520066838, 2783.554092127968, 0.0)</t>
+          <t>(-1100.785987141615, 3568.9949130421483, 0.0)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -878,7 +878,7 @@
         <v>253</v>
       </c>
       <c r="G6" t="n">
-        <v>529.6229711781135</v>
+        <v>399.8143370044408</v>
       </c>
       <c r="H6" t="n">
         <v>-10</v>
@@ -896,13 +896,13 @@
         <v>1.657630886197205</v>
       </c>
       <c r="M6" t="n">
-        <v>5.582618564224655</v>
+        <v>4.214339372476978</v>
       </c>
       <c r="N6" t="n">
-        <v>-4.277276390146397</v>
+        <v>-5.645555581894074</v>
       </c>
       <c r="O6" t="n">
-        <v>56.10397509274316</v>
+        <v>56.86679359436292</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>520</v>
       </c>
       <c r="S6" t="n">
-        <v>275403.945012619</v>
+        <v>207903.4552423092</v>
       </c>
     </row>
     <row r="7">
@@ -925,55 +925,55 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(100.02140612523948, 2987.4235657956738, 5.0)</t>
+          <t>(375.6218616416263, 3051.911036071446, 3.0)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(-269.5460448112317, 2203.8099765885836, 20.0)</t>
+          <t>(1370.9059072682867, 3714.0837835015136, 10.0)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PE100-16</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>400</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>327.4</v>
+        <v>300</v>
       </c>
       <c r="G7" t="n">
-        <v>866.5191042220011</v>
+        <v>1195.454758206289</v>
       </c>
       <c r="H7" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I7" t="n">
         <v>600</v>
       </c>
       <c r="J7" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1.979709732342543</v>
+        <v>2.35785100876882</v>
       </c>
       <c r="M7" t="n">
-        <v>9.395515787198093</v>
+        <v>19.8393877994091</v>
       </c>
       <c r="N7" t="n">
-        <v>24.59535520308285</v>
+        <v>27.12286023361021</v>
       </c>
       <c r="O7" t="n">
-        <v>31.50861988966031</v>
+        <v>29.74393336075271</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Pipe 3</t>
+          <t>Pipe 2</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -982,10 +982,10 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1020</v>
+        <v>625</v>
       </c>
       <c r="S7" t="n">
-        <v>883849.4863064411</v>
+        <v>747159.2238789306</v>
       </c>
     </row>
     <row r="8">
@@ -996,51 +996,51 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(-269.5460448112317, 2203.8099765885836, 20.0)</t>
+          <t>(1370.9059072682867, 3714.0837835015136, 10.0)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(234.37566463764233, 2213.3139994514913, 15.0)</t>
+          <t>(705.2600463000927, 4199.2185612304365, 10.0)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>PE100-16</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>315</v>
       </c>
       <c r="F8" t="n">
-        <v>253</v>
+        <v>257.8</v>
       </c>
       <c r="G8" t="n">
-        <v>504.0361253962399</v>
+        <v>823.6747930986961</v>
       </c>
       <c r="H8" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1.657630886197205</v>
+        <v>2.128637864434592</v>
       </c>
       <c r="M8" t="n">
-        <v>5.312914249957283</v>
+        <v>13.49778821044812</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4530192955862313</v>
+        <v>13.72882528764089</v>
       </c>
       <c r="O8" t="n">
-        <v>31.05560059407408</v>
+        <v>16.01510807311181</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="R8" t="n">
-        <v>520</v>
+        <v>690</v>
       </c>
       <c r="S8" t="n">
-        <v>262098.7852060448</v>
+        <v>568335.6072381004</v>
       </c>
     </row>
     <row r="9">
@@ -1067,51 +1067,51 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(234.37566463764233, 2213.3139994514913, 15.0)</t>
+          <t>(705.2600463000927, 4199.2185612304365, 10.0)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>(48.41996491063037, 1630.8824050856692, 0.0)</t>
+          <t>(791.7149329602871, 4749.743197126708, 20.0)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PE100-12.5</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>119.4</v>
+        <v>253</v>
       </c>
       <c r="G9" t="n">
-        <v>611.5808077241111</v>
+        <v>557.36148248345</v>
       </c>
       <c r="H9" t="n">
-        <v>-15</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>2.480841191687941</v>
+        <v>1.657630886197205</v>
       </c>
       <c r="M9" t="n">
-        <v>32.64993290499724</v>
+        <v>5.875003027482857</v>
       </c>
       <c r="N9" t="n">
-        <v>17.9637495997951</v>
+        <v>16.0151080731118</v>
       </c>
       <c r="O9" t="n">
-        <v>13.09185099427898</v>
+        <v>1.06581410364015e-14</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1120,10 +1120,10 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>208</v>
+        <v>520</v>
       </c>
       <c r="S9" t="n">
-        <v>127208.8080066151</v>
+        <v>289827.970891394</v>
       </c>
     </row>
   </sheetData>
@@ -1207,7 +1207,7 @@
         <v>2200</v>
       </c>
       <c r="D2" t="n">
-        <v>94.75624230024566</v>
+        <v>97.79708963411119</v>
       </c>
       <c r="E2" t="n">
         <v>0.75</v>
@@ -1216,7 +1216,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>756.9489217884548</v>
+        <v>781.2403674475113</v>
       </c>
       <c r="H2" t="n">
         <v>68.75</v>

--- a/data/outputs/acad-pipelines.xlsx
+++ b/data/outputs/acad-pipelines.xlsx
@@ -429,14 +429,601 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>pipe #</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pipe type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>nominal dia</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>id (mm)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>length (m)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>static head (endZ-startZ)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>flow</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>consumption</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>minimum pressure required</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>velocity</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>head loss</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>total head loss</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Pressure at end of pipe</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>start with</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>end with</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>costs per meter</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>total costs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pipe 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>(536.08593755699, 1927.8727861776483, -5.0)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>(1112.7556223528027, 2005.6658755842977, 12.456795843159185)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>PE100-16</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F2" t="n">
+        <v>654.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>582.1549878194318</v>
+      </c>
+      <c r="H2" t="n">
+        <v>17.45679584315918</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1900</v>
+      </c>
+      <c r="J2" t="n">
+        <v>500</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.56727020477118</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.825074435005554</v>
+      </c>
+      <c r="N2" t="n">
+        <v>19.40711685652306</v>
+      </c>
+      <c r="O2" t="n">
+        <v>85.21266846141211</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Pump 1</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Pipe 2</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>3684.020571006873</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2144670.950641042</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipe 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>(1112.7556223528027, 2005.6658755842977, 12.456795843159185)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>(375.6218616416263, 3051.911036071446, 3.0)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F3" t="n">
+        <v>484</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1279.876770634814</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-9.456795843159185</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1400</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.113707703714962</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9.932072570565627</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.7030842053150685</v>
+      </c>
+      <c r="O3" t="n">
+        <v>84.50958425609704</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Pipe 1</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Pipe 3, Pipe 6</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>1140</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1459059.518523687</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipe 3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(375.6218616416263, 3051.911036071446, 3.0)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(144.03445550263132, 2923.579361220609, 5.0)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PE100-10</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>500</v>
+      </c>
+      <c r="F4" t="n">
+        <v>440.6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>264.7748958119118</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1100</v>
+      </c>
+      <c r="J4" t="n">
+        <v>300</v>
+      </c>
+      <c r="K4" t="n">
+        <v>70</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.004062757480953</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.077202780086398</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.281989009737742</v>
+      </c>
+      <c r="O4" t="n">
+        <v>80.2275952463593</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Pipe 2</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Pipe 4</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="S4" t="n">
+        <v>317729.8749742942</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipe 4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>(144.03445550263132, 2923.579361220609, 5.0)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>(-945.1143240436759, 3200.8674386767834, 10.0)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PE100-12.5</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>315</v>
+      </c>
+      <c r="F5" t="n">
+        <v>268.6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1123.903350776459</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>800</v>
+      </c>
+      <c r="J5" t="n">
+        <v>500</v>
+      </c>
+      <c r="K5" t="n">
+        <v>20</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.921801318497367</v>
+      </c>
+      <c r="M5" t="n">
+        <v>54.44335470068484</v>
+      </c>
+      <c r="N5" t="n">
+        <v>60.22759524635931</v>
+      </c>
+      <c r="O5" t="n">
+        <v>19.99999999999999</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Pipe 3</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Pipe 5</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>640</v>
+      </c>
+      <c r="S5" t="n">
+        <v>719298.1444969337</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipe 5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>(-945.1143240436759, 3200.8674386767834, 10.0)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>(-1100.785987141615, 3568.9949130421483, 0.0)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="n">
+        <v>253</v>
+      </c>
+      <c r="G6" t="n">
+        <v>399.8143370044408</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-10</v>
+      </c>
+      <c r="I6" t="n">
+        <v>300</v>
+      </c>
+      <c r="J6" t="n">
+        <v>300</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.657630886197205</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4.214339372476978</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-5.645555581894074</v>
+      </c>
+      <c r="O6" t="n">
+        <v>25.64555558189407</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Pipe 4</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>520</v>
+      </c>
+      <c r="S6" t="n">
+        <v>207903.4552423092</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pipe 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>(375.6218616416263, 3051.911036071446, 3.0)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>(1370.9059072682867, 3714.0837835015136, 10.0)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>16</v>
+      </c>
+      <c r="F7" t="n">
+        <v>382</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1195.454758206289</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>300</v>
+      </c>
+      <c r="J7" t="n">
+        <v>200</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.7271133973479131</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.694153072572731</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.721110746068694</v>
+      </c>
+      <c r="O7" t="n">
+        <v>16.92444483582537</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Pipe 2</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Pipe 7</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>830</v>
+      </c>
+      <c r="S7" t="n">
+        <v>992227.4493112199</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pipe 7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>(1370.9059072682867, 3714.0837835015136, 10.0)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>(705.2600463000927, 4199.2185612304365, 10.0)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PE100-16</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>225</v>
+      </c>
+      <c r="F8" t="n">
+        <v>184</v>
+      </c>
+      <c r="G8" t="n">
+        <v>823.6747930986961</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>100</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.044652798072197</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5.35220197406911</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.407846450334665</v>
+      </c>
+      <c r="O8" t="n">
+        <v>11.5165983854907</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Pipe 6</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>442</v>
+      </c>
+      <c r="S8" t="n">
+        <v>364064.2585496237</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -447,14 +1034,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>pump #</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>flow</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>efficiency</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>start num</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>wetpit min volume</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>connect to pipe</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pump 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>(536.08593755699, 1927.8727861776483, -5.0)</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D2" t="n">
+        <v>104.6197853179352</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>721.7777491070327</v>
+      </c>
+      <c r="H2" t="n">
+        <v>59.375</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pipe 1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -465,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +1274,7 @@
         <v>17.45679584315918</v>
       </c>
       <c r="I2" t="n">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="J2" t="n">
         <v>500</v>
@@ -613,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.305037705462748</v>
+        <v>1.990714381990555</v>
       </c>
       <c r="M2" t="n">
-        <v>4.286542947838694</v>
+        <v>3.267322800739835</v>
       </c>
       <c r="N2" t="n">
-        <v>22.01425449687209</v>
+        <v>20.92618593691677</v>
       </c>
       <c r="O2" t="n">
-        <v>75.7828351372391</v>
+        <v>76.4823734807065</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -663,10 +1333,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>582.0000000000001</v>
+        <v>484</v>
       </c>
       <c r="G3" t="n">
         <v>1279.876770634814</v>
@@ -675,7 +1345,7 @@
         <v>-9.456795843159185</v>
       </c>
       <c r="I3" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -684,16 +1354,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.775049914490998</v>
+        <v>2.113707703714962</v>
       </c>
       <c r="M3" t="n">
-        <v>5.797278181554547</v>
+        <v>9.932072570565627</v>
       </c>
       <c r="N3" t="n">
-        <v>-3.498860808711791</v>
+        <v>0.7030842053150685</v>
       </c>
       <c r="O3" t="n">
-        <v>79.2816959459509</v>
+        <v>75.77928927539143</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -705,8 +1375,12 @@
           <t>Pipe 3, Pipe 6</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>1140</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1459059.518523687</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -760,7 +1434,7 @@
         <v>5.779289275391436</v>
       </c>
       <c r="O4" t="n">
-        <v>73.50240667055947</v>
+        <v>70</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -831,7 +1505,7 @@
         <v>22.28116865809062</v>
       </c>
       <c r="O5" t="n">
-        <v>51.22123801246885</v>
+        <v>47.71883134190938</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -902,7 +1576,7 @@
         <v>-5.645555581894074</v>
       </c>
       <c r="O6" t="n">
-        <v>56.86679359436292</v>
+        <v>53.36438692380345</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -939,10 +1613,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="G7" t="n">
         <v>1195.454758206289</v>
@@ -951,7 +1625,7 @@
         <v>7</v>
       </c>
       <c r="I7" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="J7" t="n">
         <v>200</v>
@@ -960,16 +1634,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.35785100876882</v>
+        <v>1.657630886197205</v>
       </c>
       <c r="M7" t="n">
-        <v>19.8393877994091</v>
+        <v>12.60097897756916</v>
       </c>
       <c r="N7" t="n">
-        <v>27.12286023361021</v>
+        <v>19.74108402319811</v>
       </c>
       <c r="O7" t="n">
-        <v>29.74393336075271</v>
+        <v>33.62330290060535</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -982,10 +1656,10 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>625</v>
+        <v>520</v>
       </c>
       <c r="S7" t="n">
-        <v>747159.2238789306</v>
+        <v>621636.4742672703</v>
       </c>
     </row>
     <row r="8">
@@ -1010,10 +1684,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>315</v>
+        <v>160</v>
       </c>
       <c r="F8" t="n">
-        <v>257.8</v>
+        <v>130.8</v>
       </c>
       <c r="G8" t="n">
         <v>823.6747930986961</v>
@@ -1022,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J8" t="n">
         <v>100</v>
@@ -1031,99 +1705,28 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2.128637864434592</v>
+        <v>2.067245855400096</v>
       </c>
       <c r="M8" t="n">
-        <v>13.49778821044812</v>
+        <v>28.20431644572257</v>
       </c>
       <c r="N8" t="n">
-        <v>13.72882528764089</v>
+        <v>28.42221902713543</v>
       </c>
       <c r="O8" t="n">
-        <v>16.01510807311181</v>
+        <v>5.201083873469919</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Pipe 6</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Pipe 8</t>
-        </is>
-      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>690</v>
+        <v>257</v>
       </c>
       <c r="S8" t="n">
-        <v>568335.6072381004</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Pipe 8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>(705.2600463000927, 4199.2185612304365, 10.0)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>(791.7149329602871, 4749.743197126708, 20.0)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Steel</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>10</v>
-      </c>
-      <c r="F9" t="n">
-        <v>253</v>
-      </c>
-      <c r="G9" t="n">
-        <v>557.36148248345</v>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I9" t="n">
-        <v>300</v>
-      </c>
-      <c r="J9" t="n">
-        <v>300</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.657630886197205</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5.875003027482857</v>
-      </c>
-      <c r="N9" t="n">
-        <v>16.0151080731118</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.06581410364015e-14</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Pipe 7</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
-        <v>520</v>
-      </c>
-      <c r="S9" t="n">
-        <v>289827.970891394</v>
+        <v>211684.4218263649</v>
       </c>
     </row>
   </sheetData>
@@ -1204,10 +1807,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="D2" t="n">
-        <v>97.79708963411119</v>
+        <v>97.40855941762327</v>
       </c>
       <c r="E2" t="n">
         <v>0.75</v>
@@ -1216,10 +1819,10 @@
         <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>781.2403674475113</v>
+        <v>672.0270983786644</v>
       </c>
       <c r="H2" t="n">
-        <v>68.75</v>
+        <v>59.375</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -1238,14 +1841,283 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>channel #</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>length (m)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>static head (endZ-startZ)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>slope</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>manning coeficent</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>flow</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>velocity</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>water depth</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>max flow rates</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>max water depth</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>geometry: bottom width</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>geometry: bank slope</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>geometry: channel depth</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>geometry: channel width</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>geometry: free board</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>start with</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>end with</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Channel 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>(-341.40441576579906, 4449.161529270728, 10.0)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>(927.8443495684223, 3180.6366404926175, 0.0)</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1794.50489599554</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.00557256768834408</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6812903113011027</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.27008056640625</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>(927.8443495684223, 3180.6366404926175, 0.0)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>(1727.2269999314958, 2747.6305526536253, -10.0)</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>909.1792418478992</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01099893127748395</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9054612703269362</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.350189208984375</v>
+      </c>
+      <c r="K3" t="n">
+        <v>793.8683248138187</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Channel 3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(1727.2269999314958, 2747.6305526536253, -10.0)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(2380.157882571122, 2375.611237107036, -20.0)</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>751.5431515517353</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01330595585809368</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9354203265057303</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.1781463623046875</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13957.37538883596</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/outputs/acad-pipelines.xlsx
+++ b/data/outputs/acad-pipelines.xlsx
@@ -568,7 +568,7 @@
         <v>17.45679584315918</v>
       </c>
       <c r="I2" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J2" t="n">
         <v>500</v>
@@ -577,16 +577,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.56727020477118</v>
+        <v>1.649758110285453</v>
       </c>
       <c r="M2" t="n">
-        <v>1.825074435005554</v>
+        <v>2.006949592617655</v>
       </c>
       <c r="N2" t="n">
-        <v>19.40711685652306</v>
+        <v>19.60252280791903</v>
       </c>
       <c r="O2" t="n">
-        <v>85.21266846141211</v>
+        <v>86.60008713475679</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         <v>-9.456795843159185</v>
       </c>
       <c r="I3" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -648,13 +648,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.113707703714962</v>
+        <v>2.264686825408888</v>
       </c>
       <c r="M3" t="n">
-        <v>9.932072570565627</v>
+        <v>11.28578503544423</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7030842053150685</v>
+        <v>2.090502878659743</v>
       </c>
       <c r="O3" t="n">
         <v>84.50958425609704</v>
@@ -919,7 +919,7 @@
         <v>7</v>
       </c>
       <c r="I7" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J7" t="n">
         <v>200</v>
@@ -928,16 +928,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7271133973479131</v>
+        <v>0.9694845297972176</v>
       </c>
       <c r="M7" t="n">
-        <v>1.694153072572731</v>
+        <v>2.8862848379832</v>
       </c>
       <c r="N7" t="n">
-        <v>8.721110746068694</v>
+        <v>9.934209590864912</v>
       </c>
       <c r="O7" t="n">
-        <v>16.92444483582537</v>
+        <v>15.71134599102915</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -969,46 +969,46 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(705.2600463000927, 4199.2185612304365, 10.0)</t>
+          <t>(532.2338936255255, 4242.747504055085, 25.0)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PE100-16</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>225</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>184</v>
+        <v>382</v>
       </c>
       <c r="G8" t="n">
-        <v>823.6747930986961</v>
+        <v>991.5044507702164</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1.044652798072197</v>
+        <v>0.4847422648986088</v>
       </c>
       <c r="M8" t="n">
-        <v>5.35220197406911</v>
+        <v>0.6631215764664447</v>
       </c>
       <c r="N8" t="n">
-        <v>5.407846450334665</v>
+        <v>15.67510276468687</v>
       </c>
       <c r="O8" t="n">
-        <v>11.5165983854907</v>
+        <v>0.03624322634228072</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1017,10 +1017,10 @@
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>442</v>
+        <v>830</v>
       </c>
       <c r="S8" t="n">
-        <v>364064.2585496237</v>
+        <v>822948.6941392797</v>
       </c>
     </row>
   </sheetData>
@@ -1101,10 +1101,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>104.6197853179352</v>
+        <v>106.2026099426758</v>
       </c>
       <c r="E2" t="n">
         <v>0.75</v>
@@ -1113,10 +1113,10 @@
         <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>721.7777491070327</v>
+        <v>771.2607838974278</v>
       </c>
       <c r="H2" t="n">
-        <v>59.375</v>
+        <v>62.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>17.45679584315918</v>
       </c>
       <c r="I2" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J2" t="n">
         <v>500</v>
@@ -1283,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.990714381990555</v>
+        <v>2.095488823147953</v>
       </c>
       <c r="M2" t="n">
-        <v>3.267322800739835</v>
+        <v>3.592923136789889</v>
       </c>
       <c r="N2" t="n">
-        <v>20.92618593691677</v>
+        <v>21.27361625753106</v>
       </c>
       <c r="O2" t="n">
-        <v>76.4823734807065</v>
+        <v>84.26427601794302</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>-9.456795843159185</v>
       </c>
       <c r="I3" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.113707703714962</v>
+        <v>2.264686825408888</v>
       </c>
       <c r="M3" t="n">
-        <v>9.932072570565627</v>
+        <v>11.28578503544423</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7030842053150685</v>
+        <v>2.090502878659743</v>
       </c>
       <c r="O3" t="n">
-        <v>75.77928927539143</v>
+        <v>82.17377313928327</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>5.779289275391436</v>
       </c>
       <c r="O4" t="n">
-        <v>70</v>
+        <v>76.39448386389185</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         <v>22.28116865809062</v>
       </c>
       <c r="O5" t="n">
-        <v>47.71883134190938</v>
+        <v>54.11331520580122</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>-5.645555581894074</v>
       </c>
       <c r="O6" t="n">
-        <v>53.36438692380345</v>
+        <v>59.75887078769529</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>7</v>
       </c>
       <c r="I7" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J7" t="n">
         <v>200</v>
@@ -1634,16 +1634,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1.657630886197205</v>
+        <v>2.210174514929607</v>
       </c>
       <c r="M7" t="n">
-        <v>12.60097897756916</v>
+        <v>21.46796246189939</v>
       </c>
       <c r="N7" t="n">
-        <v>19.74108402319811</v>
+        <v>28.71703809857307</v>
       </c>
       <c r="O7" t="n">
-        <v>33.62330290060535</v>
+        <v>31.04183268912222</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1675,46 +1675,46 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(705.2600463000927, 4199.2185612304365, 10.0)</t>
+          <t>(532.2338936255255, 4242.747504055085, 25.0)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PE100-16</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>130.8</v>
+        <v>199</v>
       </c>
       <c r="G8" t="n">
-        <v>823.6747930986961</v>
+        <v>991.5044507702164</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2.067245855400096</v>
+        <v>1.786205658015318</v>
       </c>
       <c r="M8" t="n">
-        <v>28.20431644572257</v>
+        <v>15.87915011453901</v>
       </c>
       <c r="N8" t="n">
-        <v>28.42221902713543</v>
+        <v>31.04183268912222</v>
       </c>
       <c r="O8" t="n">
-        <v>5.201083873469919</v>
+        <v>0</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1723,10 +1723,10 @@
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>257</v>
+        <v>445</v>
       </c>
       <c r="S8" t="n">
-        <v>211684.4218263649</v>
+        <v>441219.4805927463</v>
       </c>
     </row>
   </sheetData>
@@ -1807,10 +1807,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>97.40855941762327</v>
+        <v>105.5378922754741</v>
       </c>
       <c r="E2" t="n">
         <v>0.75</v>
@@ -1819,10 +1819,10 @@
         <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>672.0270983786644</v>
+        <v>766.4334951014821</v>
       </c>
       <c r="H2" t="n">
-        <v>59.375</v>
+        <v>62.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
